--- a/DFA US/DFA.xlsx
+++ b/DFA US/DFA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/DFA US/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1658" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92FCC73-E981-4BDF-B89F-7BFB5CD9B727}"/>
+  <xr:revisionPtr revIDLastSave="1660" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144E7231-E45C-4703-9EAE-D81D3AA41DAB}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DFSV" sheetId="17" r:id="rId1"/>
@@ -207,6 +207,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,6 +478,358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="A1:F48"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>690252</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1824625</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3767</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>AVERAGE(C6:C6)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C5/C6</f>
+        <v>1177187.5</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C9/C7</f>
+        <v>1.0533581099017787E-4</v>
+      </c>
+      <c r="D10" s="4">
+        <f>AVERAGE(C10:C10)</f>
+        <v>1.0533581099017787E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>25635</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14" si="0">C13/(C12+C13)</f>
+        <v>1.0132107088577998E-3</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9">
+        <f>(C12+C13)/C7</f>
+        <v>2.1798566498539951E-2</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <f>C13/C7</f>
+        <v>2.2086541014069551E-5</v>
+      </c>
+      <c r="D16" s="4">
+        <f>AVERAGE(C16:C16)</f>
+        <v>2.2086541014069551E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="13">
+        <f>AVERAGE(C18:C18)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="3">
+        <f>C19/C7</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <f>AVERAGE(C20:C20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="15">
+        <v>2023</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>A10</f>
+        <v>Lending income %</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25" si="1">C10</f>
+        <v>1.0533581099017787E-4</v>
+      </c>
+      <c r="D25" s="9">
+        <f>AVERAGE(C25:C25)</f>
+        <v>1.0533581099017787E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>A20</f>
+        <v>Brokerage commissions %</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26" si="2">C20</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <f>AVERAGE(C26:C26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>A15</f>
+        <v>Dividend (gross)</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4">
+        <f t="shared" ref="C28" si="3">C15</f>
+        <v>2.1798566498539951E-2</v>
+      </c>
+      <c r="D28" s="9">
+        <f>AVERAGE(C28:C28)</f>
+        <v>2.1798566498539951E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>A18</f>
+        <v>Turnover</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="13">
+        <f t="shared" ref="C29" si="4">C18</f>
+        <v>0.11</v>
+      </c>
+      <c r="D29" s="16">
+        <f>AVERAGE(C29:C29)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <f>C6-D10+D20</f>
+        <v>3.0946641890098221E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9939E4F9-461F-4568-B5ED-8086F133870D}">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -510,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>690252</v>
+        <v>472079</v>
       </c>
       <c r="C4" s="5">
-        <v>1824625</v>
+        <v>1281622</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
@@ -523,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5">
-        <v>3767</v>
+        <v>3872</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -532,11 +888,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>3.2000000000000002E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="D6" s="4">
         <f>AVERAGE(C6:C6)</f>
-        <v>3.2000000000000002E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -546,7 +902,7 @@
       </c>
       <c r="C7" s="5">
         <f>C5/C6</f>
-        <v>1177187.5</v>
+        <v>921904.76190476201</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -559,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -569,11 +925,11 @@
       </c>
       <c r="C10" s="2">
         <f>C9/C7</f>
-        <v>1.0533581099017787E-4</v>
+        <v>3.7314049586776855E-4</v>
       </c>
       <c r="D10" s="4">
         <f>AVERAGE(C10:C10)</f>
-        <v>1.0533581099017787E-4</v>
+        <v>3.7314049586776855E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>25635</v>
+        <v>37428</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -593,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="5">
-        <v>26</v>
+        <v>4990</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -603,7 +959,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ref="C14" si="0">C13/(C12+C13)</f>
-        <v>1.0132107088577998E-3</v>
+        <v>0.11763873827148852</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -613,7 +969,7 @@
       </c>
       <c r="C15" s="9">
         <f>(C12+C13)/C7</f>
-        <v>2.1798566498539951E-2</v>
+        <v>4.6011260330578507E-2</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -623,11 +979,11 @@
       </c>
       <c r="C16" s="9">
         <f>C13/C7</f>
-        <v>2.2086541014069551E-5</v>
+        <v>5.4127066115702473E-3</v>
       </c>
       <c r="D16" s="4">
         <f>AVERAGE(C16:C16)</f>
-        <v>2.2086541014069551E-5</v>
+        <v>5.4127066115702473E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,11 +996,11 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="13">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="D18" s="13">
         <f>AVERAGE(C18:C18)</f>
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,361 +1057,7 @@
         <v>Lending income %</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25" si="1">C10</f>
-        <v>1.0533581099017787E-4</v>
-      </c>
-      <c r="D25" s="9">
-        <f>AVERAGE(C25:C25)</f>
-        <v>1.0533581099017787E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f>A20</f>
-        <v>Brokerage commissions %</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26" si="2">C20</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <f>AVERAGE(C26:C26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
-        <f>A15</f>
-        <v>Dividend (gross)</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="4">
-        <f t="shared" ref="C28" si="3">C15</f>
-        <v>2.1798566498539951E-2</v>
-      </c>
-      <c r="D28" s="9">
-        <f>AVERAGE(C28:C28)</f>
-        <v>2.1798566498539951E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
-        <f>A18</f>
-        <v>Turnover</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="13">
-        <f t="shared" ref="C29" si="4">C18</f>
-        <v>0.11</v>
-      </c>
-      <c r="D29" s="16">
-        <f>AVERAGE(C29:C29)</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4">
-        <f>C6-D10+D20</f>
-        <v>3.0946641890098221E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9939E4F9-461F-4568-B5ED-8086F133870D}">
-  <dimension ref="A1:F48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>472079</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1281622</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3872</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <f>AVERAGE(C6:C6)</f>
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <f>C5/C6</f>
-        <v>921904.76190476201</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>344</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <f>C9/C7</f>
-        <v>3.7314049586776855E-4</v>
-      </c>
-      <c r="D10" s="4">
-        <f>AVERAGE(C10:C10)</f>
-        <v>3.7314049586776855E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>37428</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4990</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9">
-        <f t="shared" ref="C14" si="0">C13/(C12+C13)</f>
-        <v>0.11763873827148852</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9">
-        <f>(C12+C13)/C7</f>
-        <v>4.6011260330578507E-2</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9">
-        <f>C13/C7</f>
-        <v>5.4127066115702473E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <f>AVERAGE(C16:C16)</f>
-        <v>5.4127066115702473E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="D18" s="13">
-        <f>AVERAGE(C18:C18)</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3">
-        <f>C19/C7</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <f>AVERAGE(C20:C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="15">
-        <v>2023</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
-        <f>A10</f>
-        <v>Lending income %</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" ref="C25" si="1">C10</f>
         <v>3.7314049586776855E-4</v>
       </c>
